--- a/IO_Initial_Runs_2/RunControl_initRuns_2.xlsx
+++ b/IO_Initial_Runs_2/RunControl_initRuns_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -1359,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -4477,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4522,7 +4522,7 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>20</v>

--- a/IO_Initial_Runs_2/RunControl_initRuns_2.xlsx
+++ b/IO_Initial_Runs_2/RunControl_initRuns_2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="210">
   <si>
     <t>Sheet #</t>
   </si>
@@ -650,6 +650,15 @@
   </si>
   <si>
     <t>AL_pct</t>
+  </si>
+  <si>
+    <t>rp2014.hybrid</t>
+  </si>
+  <si>
+    <t>az-srs</t>
+  </si>
+  <si>
+    <t>pa-psers</t>
   </si>
 </sst>
 </file>
@@ -835,13 +844,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,10 +853,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,10 +1369,10 @@
   <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,68 +1541,68 @@
       </c>
     </row>
     <row r="4" spans="1:43" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="32" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34" t="s">
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="35" t="s">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="23"/>
-      <c r="AJ4" s="34" t="s">
+      <c r="AJ4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
       <c r="AM4" s="24" t="s">
         <v>70</v>
       </c>
@@ -1757,10 +1766,10 @@
         <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
@@ -1844,7 +1853,7 @@
         <v>206</v>
       </c>
       <c r="AK6" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL6">
         <v>200</v>
@@ -1889,10 +1898,10 @@
         <v>109</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
@@ -1976,7 +1985,7 @@
         <v>206</v>
       </c>
       <c r="AK7" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL7">
         <v>200</v>
@@ -2021,10 +2030,10 @@
         <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
@@ -2108,7 +2117,7 @@
         <v>206</v>
       </c>
       <c r="AK8" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL8">
         <v>200</v>
@@ -2153,10 +2162,10 @@
         <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J9" s="12">
         <v>0</v>
@@ -2240,7 +2249,7 @@
         <v>206</v>
       </c>
       <c r="AK9" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL9">
         <v>200</v>
@@ -2285,10 +2294,10 @@
         <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
@@ -2372,7 +2381,7 @@
         <v>206</v>
       </c>
       <c r="AK10" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL10">
         <v>200</v>
@@ -2417,10 +2426,10 @@
         <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
@@ -2504,7 +2513,7 @@
         <v>206</v>
       </c>
       <c r="AK11" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL11">
         <v>200</v>
@@ -2566,10 +2575,10 @@
         <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J14" s="12">
         <v>0</v>
@@ -2653,7 +2662,7 @@
         <v>206</v>
       </c>
       <c r="AK14" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL14">
         <v>200</v>
@@ -2698,10 +2707,10 @@
         <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
@@ -2785,7 +2794,7 @@
         <v>206</v>
       </c>
       <c r="AK15" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL15">
         <v>200</v>
@@ -2830,10 +2839,10 @@
         <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J16" s="12">
         <v>0</v>
@@ -2917,7 +2926,7 @@
         <v>206</v>
       </c>
       <c r="AK16" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL16">
         <v>200</v>
@@ -2962,10 +2971,10 @@
         <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J17" s="12">
         <v>0</v>
@@ -3049,7 +3058,7 @@
         <v>206</v>
       </c>
       <c r="AK17" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL17">
         <v>200</v>
@@ -3094,10 +3103,10 @@
         <v>109</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
@@ -3181,7 +3190,7 @@
         <v>206</v>
       </c>
       <c r="AK18" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL18">
         <v>200</v>
@@ -3226,10 +3235,10 @@
         <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
@@ -3313,7 +3322,7 @@
         <v>206</v>
       </c>
       <c r="AK19" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL19">
         <v>200</v>
@@ -3338,11 +3347,13 @@
       <c r="L20" s="28"/>
       <c r="AF20" s="26"/>
       <c r="AJ20" s="2"/>
+      <c r="AK20" s="26"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="L21" s="28"/>
       <c r="AF21" s="26"/>
       <c r="AJ21" s="2"/>
+      <c r="AK21" s="26"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -3368,10 +3379,10 @@
         <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J22" s="12">
         <v>0</v>
@@ -3455,7 +3466,7 @@
         <v>206</v>
       </c>
       <c r="AK22" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL22">
         <v>200</v>
@@ -3500,10 +3511,10 @@
         <v>109</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J23" s="12">
         <v>0</v>
@@ -3587,7 +3598,7 @@
         <v>206</v>
       </c>
       <c r="AK23" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL23">
         <v>200</v>
@@ -3632,10 +3643,10 @@
         <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J24" s="12">
         <v>0</v>
@@ -3719,7 +3730,7 @@
         <v>206</v>
       </c>
       <c r="AK24" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL24">
         <v>200</v>
@@ -3764,10 +3775,10 @@
         <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J25" s="12">
         <v>0</v>
@@ -3851,7 +3862,7 @@
         <v>206</v>
       </c>
       <c r="AK25" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL25">
         <v>200</v>
@@ -3896,10 +3907,10 @@
         <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J26" s="12">
         <v>0</v>
@@ -3983,7 +3994,7 @@
         <v>206</v>
       </c>
       <c r="AK26" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL26">
         <v>200</v>
@@ -4028,10 +4039,10 @@
         <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="J27" s="12">
         <v>0</v>
@@ -4115,7 +4126,7 @@
         <v>206</v>
       </c>
       <c r="AK27" s="19">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AL27">
         <v>200</v>
@@ -4138,17 +4149,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="V4:X4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP11 AP22:AP27 AP14:AP19">
@@ -4234,6 +4245,24 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6:H27</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DropDowns!$A$44:$A$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I27</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4478,7 +4507,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4522,7 +4551,7 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -4545,10 +4574,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C48:C49"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4782,17 +4811,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>111</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/IO_Initial_Runs_2/RunControl_initRuns_2.xlsx
+++ b/IO_Initial_Runs_2/RunControl_initRuns_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,16 +859,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,11 +1368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,68 +1541,68 @@
       </c>
     </row>
     <row r="4" spans="1:43" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="29" t="s">
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="33" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
       <c r="AG4" s="17"/>
       <c r="AH4" s="27"/>
       <c r="AI4" s="23"/>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
       <c r="AM4" s="24" t="s">
         <v>70</v>
       </c>
@@ -4149,17 +4149,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP11 AP22:AP27 AP14:AP19">
@@ -4506,7 +4506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
